--- a/pred_ohlcv/54_21/2019-10-27 LAMB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 LAMB ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-604638.9589</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-595211.0917999999</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-595211.0917999999</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-595211.0917999999</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-595211.0917999999</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-592863.7823</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-592863.7823</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-592863.7823</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-600806.7823</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-600791.9323</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-622384.6008</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-622384.6008</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-622384.6008</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-622384.6008</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-622384.6008</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-622384.6008</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-620312.0682</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-621812.0682</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-632412.0682</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-632412.0682</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-632412.0682</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-621566.5179352631</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-648330.4546352631</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-648330.4546352631</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-641330.4546352631</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-641330.4546352631</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-641330.4546352631</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-641330.4546352631</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-681930.4546352631</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-781219.9393352631</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-781219.9393352631</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-781219.9393352631</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-781219.9393352631</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-781219.9393352631</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-774039.1061352631</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-772002.1741352631</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-772002.1741352631</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-913402.1741352631</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-927623.1741352631</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-927608.3241352631</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-929108.3241352631</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-930108.3241352631</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-929474.2623352631</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-929858.2623352631</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-944248.0227352631</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-941952.645701842</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-949725.369068421</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-949725.369068421</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-949725.369068421</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-949725.369068421</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-949725.369068421</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-944715.130068421</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-944715.130068421</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-944715.130068421</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-968878.631268421</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-968878.631268421</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-1007122.631268421</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-1007122.631268421</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-1077097.631268421</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-1141481.693268421</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-1793872.988083448</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-1793872.988083448</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-1793872.988083448</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-1763350.856683448</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-1763350.856683448</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-1762806.307483448</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-1770574.608083448</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-1775610.608083448</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-1779126.642083448</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-1779126.642083448</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-1814040.791283448</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-1796440.791283448</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-1796440.791283448</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-1812692.791283448</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-1812692.791283448</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-1861292.791283448</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-1861292.791283448</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-3642702.663507346</v>
       </c>
       <c r="H336">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-3672644.663507346</v>
       </c>
       <c r="H337">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-3672644.663507346</v>
       </c>
       <c r="H338">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-3611185.750507345</v>
       </c>
       <c r="H339">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-3611185.750507345</v>
       </c>
       <c r="H340">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-3589214.959995354</v>
       </c>
       <c r="H341">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-3618265.275195354</v>
       </c>
       <c r="H342">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-3679378.733495354</v>
       </c>
       <c r="H344">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-3567762.692695354</v>
       </c>
       <c r="H345">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-3588162.692695354</v>
       </c>
       <c r="H346">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-3588162.692695354</v>
       </c>
       <c r="H347">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-3588162.692695354</v>
       </c>
       <c r="H348">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-3588162.692695354</v>
       </c>
       <c r="H349">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-3588162.692695354</v>
       </c>
       <c r="H350">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-3666738.418995354</v>
       </c>
       <c r="H351">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-3664792.134395354</v>
       </c>
       <c r="H352">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-3664792.134395354</v>
       </c>
       <c r="H353">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-3662756.473495354</v>
       </c>
       <c r="H354">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-3662756.473495354</v>
       </c>
       <c r="H355">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-3703683.304895354</v>
       </c>
       <c r="H356">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-3723038.381395354</v>
       </c>
       <c r="H358">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-3716038.381395354</v>
       </c>
       <c r="H359">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-3718038.381395354</v>
       </c>
       <c r="H360">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-3714038.381395354</v>
       </c>
       <c r="H361">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-3696877.381395354</v>
       </c>
       <c r="H362">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-3563997.062895354</v>
       </c>
       <c r="H373">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-3563997.062895354</v>
       </c>
       <c r="H374">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-3541237.085995354</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-3541237.085995354</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-3774841.608695354</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-3773341.608695354</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-3773341.608695354</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-3724041.608695354</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-3725938.594995354</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-3825938.594995354</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-3810938.594995354</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-3812938.594995354</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-3829263.433695354</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-3881754.843195354</v>
       </c>
       <c r="H396">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-4177964.857071558</v>
       </c>
       <c r="H409">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-4256577.172771557</v>
       </c>
       <c r="H446">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-4391621.906271557</v>
       </c>
       <c r="H451">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-4572902.142571557</v>
       </c>
       <c r="H460">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-4583642.126671557</v>
       </c>
       <c r="H461">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-4610027.143071557</v>
       </c>
       <c r="H462">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-4610027.143071557</v>
       </c>
       <c r="H463">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-4610027.143071557</v>
       </c>
       <c r="H464">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-4613696.287671558</v>
       </c>
       <c r="H465">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-4613696.287671558</v>
       </c>
       <c r="H466">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-4613696.287671558</v>
       </c>
       <c r="H467">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-4613696.287671558</v>
       </c>
       <c r="H468">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-4610199.805871557</v>
       </c>
       <c r="H469">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-4666215.041371558</v>
       </c>
       <c r="H470">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-4666215.041371558</v>
       </c>
       <c r="H471">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-4666193.132371558</v>
       </c>
       <c r="H472">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-4668145.338371558</v>
       </c>
       <c r="H473">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-4668145.338371558</v>
       </c>
       <c r="H474">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-4668145.338371558</v>
       </c>
       <c r="H475">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-4668145.338371558</v>
       </c>
       <c r="H476">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-4652855.669371558</v>
       </c>
       <c r="H477">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-4652833.734571558</v>
       </c>
       <c r="H478">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-4701456.832571559</v>
       </c>
       <c r="H479">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-4701456.832571559</v>
       </c>
       <c r="H480">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-4712456.832571559</v>
       </c>
       <c r="H481">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-4630593.905671558</v>
       </c>
       <c r="H482">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-4682330.344571559</v>
       </c>
       <c r="H483">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-4665471.679844286</v>
       </c>
       <c r="H484">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-4665471.679844286</v>
       </c>
       <c r="H485">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-4665461.679844286</v>
       </c>
       <c r="H486">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-4670414.036544287</v>
       </c>
       <c r="H487">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-4720618.367744287</v>
       </c>
       <c r="H488">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-4720618.367744287</v>
       </c>
       <c r="H489">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-4695723.678544287</v>
       </c>
       <c r="H490">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-4695723.678544287</v>
       </c>
       <c r="H491">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-4742840.276544287</v>
       </c>
       <c r="H493">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-4742824.242544287</v>
       </c>
       <c r="H494">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-4753424.242544287</v>
       </c>
       <c r="H495">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-4783424.242544287</v>
       </c>
       <c r="H496">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-4781988.605244287</v>
       </c>
       <c r="H497">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-4790402.149144287</v>
       </c>
       <c r="H498">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-4790104.387144287</v>
       </c>
       <c r="H499">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-4790104.387144287</v>
       </c>
       <c r="H500">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-4819079.077644287</v>
       </c>
       <c r="H501">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-4731458.704044287</v>
       </c>
       <c r="H502">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-4739664.524544287</v>
       </c>
       <c r="H503">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>-4734662.194944288</v>
       </c>
       <c r="H504">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>-4726518.232044288</v>
       </c>
       <c r="H505">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>-4726518.232044288</v>
       </c>
       <c r="H506">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>-4726518.232044288</v>
       </c>
       <c r="H507">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>-4531894.781044288</v>
       </c>
       <c r="H508">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>-4531985.690044288</v>
       </c>
       <c r="H509">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>-4516324.346844288</v>
       </c>
       <c r="H510">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>-4451379.556544287</v>
       </c>
       <c r="H511">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-4481542.934144287</v>
       </c>
       <c r="H512">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-4473542.934144287</v>
       </c>
       <c r="H513">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-4433527.526844287</v>
       </c>
       <c r="H514">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-4531487.668544287</v>
       </c>
       <c r="H515">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>-4401580.210444286</v>
       </c>
       <c r="H516">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>-4399286.547144286</v>
       </c>
       <c r="H519">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>-4419881.367389287</v>
       </c>
       <c r="H524">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>-4419881.367389287</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>-4403717.956889287</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>-4475775.321989287</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>-4475753.472689287</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>-4510868.735089287</v>
       </c>
       <c r="H530">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>-4517869.217089287</v>
       </c>
       <c r="H531">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>-4624250.762689287</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>-4624469.183589287</v>
       </c>
       <c r="H533">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>-4624469.183589287</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>-4615446.090789287</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>-4593399.341989287</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>-4586652.320189287</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>-4605379.341289287</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>-4406790.499689287</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>-4665449.436689286</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>-4665241.756189287</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>-4663741.756189287</v>
       </c>
       <c r="H542">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>-4673741.756189287</v>
       </c>
       <c r="H543">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>-4718341.756189287</v>
       </c>
       <c r="H544">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>-4754016.798989287</v>
       </c>
       <c r="H545">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>-4753982.210789287</v>
       </c>
       <c r="H546">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>-4791182.210789287</v>
       </c>
       <c r="H547">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>-4822582.210789287</v>
       </c>
       <c r="H548">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>-4822582.210789287</v>
       </c>
       <c r="H549">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>-4822582.210789287</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>-4822582.210789287</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>-4822582.210789287</v>
       </c>
       <c r="H552">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>-4822582.210789287</v>
       </c>
       <c r="H553">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>-4816935.936789286</v>
       </c>
       <c r="H554">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>-4845104.316889286</v>
       </c>
       <c r="H555">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>-4845104.316889286</v>
       </c>
       <c r="H556">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>-4845104.316889286</v>
       </c>
       <c r="H557">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>-4845104.316889286</v>
       </c>
       <c r="H558">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>-4845104.316889286</v>
       </c>
       <c r="H559">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>-4845104.316889286</v>
       </c>
       <c r="H560">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>-4845104.316889286</v>
       </c>
       <c r="H561">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>-4845104.316889286</v>
       </c>
       <c r="H562">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>-4873904.316889286</v>
       </c>
       <c r="H563">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>-4848894.061489286</v>
       </c>
       <c r="H564">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>-4847894.061489286</v>
       </c>
       <c r="H565">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>-4873726.751389286</v>
       </c>
       <c r="H566">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>-4873726.751389286</v>
       </c>
       <c r="H567">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>-4873726.751389286</v>
       </c>
       <c r="H568">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>-4873726.751389286</v>
       </c>
       <c r="H569">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>-4873726.751389286</v>
       </c>
       <c r="H570">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>-4873726.751389286</v>
       </c>
       <c r="H571">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>-4873427.887189286</v>
       </c>
       <c r="H572">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>-4867890.282704988</v>
       </c>
       <c r="H573">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>-4867890.282704988</v>
       </c>
       <c r="H574">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>-4867890.282704988</v>
       </c>
       <c r="H575">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>-4912123.135804988</v>
       </c>
       <c r="H576">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>-4862730.213404989</v>
       </c>
       <c r="H577">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>-4862730.213404989</v>
       </c>
       <c r="H578">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>-4862730.213404989</v>
       </c>
       <c r="H579">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>-5027411.218509692</v>
       </c>
       <c r="H580">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>-5040811.218509692</v>
       </c>
       <c r="H581">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>-5015170.954309692</v>
       </c>
       <c r="H582">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>-5140738.686909691</v>
       </c>
       <c r="H583">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>-5718685.462909692</v>
       </c>
       <c r="H588">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>-5716127.534009692</v>
       </c>
       <c r="H589">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>-5737053.738709692</v>
       </c>
       <c r="H590">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>-5731234.344109692</v>
       </c>
       <c r="H591">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>-5683841.736309691</v>
       </c>
       <c r="H592">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>-5680531.299709692</v>
       </c>
       <c r="H593">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>-5680531.299709692</v>
       </c>
       <c r="H594">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>-5680531.299709692</v>
       </c>
       <c r="H595">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>-5680531.299709692</v>
       </c>
       <c r="H596">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>-5655512.299709692</v>
       </c>
       <c r="H597">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>-5668620.287009692</v>
       </c>
       <c r="H598">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>-5673308.261209692</v>
       </c>
       <c r="H599">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>-5673298.151209692</v>
       </c>
       <c r="H600">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>-5704689.598909692</v>
       </c>
       <c r="H602">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>-5644050.761809692</v>
       </c>
       <c r="H603">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>-5644040.661809692</v>
       </c>
       <c r="H604">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>-5648608.898609692</v>
       </c>
       <c r="H607">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>-4845718.756688147</v>
       </c>
       <c r="H631">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>-4843306.676088147</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>-4847184.679688147</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>-4847184.679688147</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>-4842240.653988147</v>
       </c>
       <c r="H635">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>-4868308.664188148</v>
       </c>
       <c r="H636">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>-4870565.089388148</v>
       </c>
       <c r="H637">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>-4925720.410088148</v>
       </c>
       <c r="H638">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>-4942189.538988148</v>
       </c>
       <c r="H639">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>-4988195.899188148</v>
       </c>
       <c r="H640">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>-4988185.799188148</v>
       </c>
       <c r="H641">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>-4996447.925388148</v>
       </c>
       <c r="H642">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>-5011273.308732841</v>
       </c>
       <c r="H643">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="644" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-27 LAMB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 LAMB ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-604638.9589</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-595211.0917999999</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-595211.0917999999</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-592863.7823</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-592863.7823</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-592863.7823</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-600806.7823</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-600791.9323</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-622384.6008</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-622384.6008</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-622384.6008</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-622384.6008</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-622384.6008</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-622384.6008</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-620312.0682</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-621812.0682</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-632412.0682</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-632412.0682</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-632412.0682</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-621566.5179352631</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-648330.4546352631</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-648330.4546352631</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-641330.4546352631</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-641330.4546352631</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-641330.4546352631</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-641330.4546352631</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-681930.4546352631</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-781219.9393352631</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-781219.9393352631</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-781219.9393352631</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-781219.9393352631</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-781219.9393352631</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-774039.1061352631</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-772002.1741352631</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-772002.1741352631</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-913402.1741352631</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-927623.1741352631</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-927608.3241352631</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-929108.3241352631</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-930108.3241352631</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-929474.2623352631</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-929858.2623352631</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-944248.0227352631</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-941952.645701842</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-949725.369068421</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-949725.369068421</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-949725.369068421</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-949725.369068421</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-949725.369068421</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-944715.130068421</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-944715.130068421</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-944715.130068421</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-968878.631268421</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-968878.631268421</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-1007122.631268421</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-1007122.631268421</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-991022.631268421</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-1077097.631268421</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-1141481.693268421</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-1793872.988083448</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-1793872.988083448</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-1793872.988083448</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-1763350.856683448</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-1763350.856683448</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-1762806.307483448</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-1770574.608083448</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-1775610.608083448</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-1779126.642083448</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-1779126.642083448</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-1814040.791283448</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-1796440.791283448</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-1796440.791283448</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-1812692.791283448</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-1812692.791283448</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-1861292.791283448</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-1861292.791283448</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-3567762.692695354</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-3588162.692695354</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-3588162.692695354</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-3588162.692695354</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-3588162.692695354</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-3588162.692695354</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-3666738.418995354</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-3664792.134395354</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-3662756.473495354</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-3662756.473495354</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-3703683.304895354</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-3714038.381395354</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-3696877.381395354</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-3663690.515995354</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-3658961.041195354</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-3563997.062895354</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-3563997.062895354</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-3563997.062895354</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-3563997.062895354</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-3613997.062895354</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-3613997.062895354</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-3613997.062895354</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-3658797.062895354</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-3656895.322295354</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-3607481.288295354</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-3540737.085995354</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-3541237.085995354</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-3541237.085995354</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-3774841.608695354</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-3773341.608695354</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-3773341.608695354</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-3724041.608695354</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-3725938.594995354</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-3825938.594995354</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-3810938.594995354</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-3812938.594995354</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-3829263.433695354</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-4301250.147271557</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>-4301250.147271557</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-4256577.172771557</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-4398214.553471557</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-4398214.553471557</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-4391621.906271557</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-4401621.906271557</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-4366771.309771557</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-4575842.029071557</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-4572912.142571557</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-4572902.142571557</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-4583642.126671557</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-4610027.143071557</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-4610027.143071557</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-4610027.143071557</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-4613696.287671558</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-4613696.287671558</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-4613696.287671558</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-4613696.287671558</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-4610199.805871557</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-4666215.041371558</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-4666215.041371558</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-4666193.132371558</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-4668145.338371558</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-4668145.338371558</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-4668145.338371558</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-4668145.338371558</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-4652855.669371558</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-4652833.734571558</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-4701456.832571559</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-4701456.832571559</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-4712456.832571559</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-4630593.905671558</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-4682330.344571559</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-4665471.679844286</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-4665471.679844286</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-4665461.679844286</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-4670414.036544287</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-4720618.367744287</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-4720618.367744287</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-4695723.678544287</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-4695723.678544287</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>-4695723.678544287</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-4742840.276544287</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-4742824.242544287</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-4753424.242544287</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-4783424.242544287</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-4781988.605244287</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-4790402.149144287</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-4790104.387144287</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-4790104.387144287</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-4819079.077644287</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-4731458.704044287</v>
       </c>
       <c r="H502">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-4739664.524544287</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>-4734662.194944288</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>-4726518.232044288</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>-4726518.232044288</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>-4726518.232044288</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>-4531894.781044288</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>-4531985.690044288</v>
       </c>
       <c r="H509">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>-4516324.346844288</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>-4451379.556544287</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-4481542.934144287</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-4473542.934144287</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-4433527.526844287</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-4531487.668544287</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>-4401580.210444286</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-4401580.210444286</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>-4401596.547144286</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>-4399286.547144286</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>-4503200.900444286</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>-4502137.825544286</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>-4419881.367389287</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>-4419881.367389287</v>
       </c>
       <c r="H524">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>-4419881.367389287</v>
       </c>
       <c r="H526">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>-4403717.956889287</v>
       </c>
       <c r="H527">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>-4475775.321989287</v>
       </c>
       <c r="H528">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>-4475753.472689287</v>
       </c>
       <c r="H529">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>-4510868.735089287</v>
       </c>
       <c r="H530">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>-4517869.217089287</v>
       </c>
       <c r="H531">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>-4624250.762689287</v>
       </c>
       <c r="H532">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>-4624469.183589287</v>
       </c>
       <c r="H533">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>-4624469.183589287</v>
       </c>
       <c r="H534">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>-4615446.090789287</v>
       </c>
       <c r="H535">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>-4593399.341989287</v>
       </c>
       <c r="H536">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>-4586652.320189287</v>
       </c>
       <c r="H537">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>-4605379.341289287</v>
       </c>
       <c r="H538">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>-4406790.499689287</v>
       </c>
       <c r="H539">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>-4665449.436689286</v>
       </c>
       <c r="H540">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>-4665241.756189287</v>
       </c>
       <c r="H541">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>-4663741.756189287</v>
       </c>
       <c r="H542">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>-4673741.756189287</v>
       </c>
       <c r="H543">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>-4718341.756189287</v>
       </c>
       <c r="H544">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>-4754016.798989287</v>
       </c>
       <c r="H545">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>-4753982.210789287</v>
       </c>
       <c r="H546">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>-4791182.210789287</v>
       </c>
       <c r="H547">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>-4822582.210789287</v>
       </c>
       <c r="H548">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>-4822582.210789287</v>
       </c>
       <c r="H549">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>-4822582.210789287</v>
       </c>
       <c r="H550">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>-4822582.210789287</v>
       </c>
       <c r="H551">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>-4822582.210789287</v>
       </c>
       <c r="H552">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>-4822582.210789287</v>
       </c>
       <c r="H553">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>-4816935.936789286</v>
       </c>
       <c r="H554">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>-4845104.316889286</v>
       </c>
       <c r="H555">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>-4845104.316889286</v>
       </c>
       <c r="H556">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>-4845104.316889286</v>
       </c>
       <c r="H557">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>-4845104.316889286</v>
       </c>
       <c r="H558">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>-4845104.316889286</v>
       </c>
       <c r="H559">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>-4845104.316889286</v>
       </c>
       <c r="H560">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>-4845104.316889286</v>
       </c>
       <c r="H561">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>-4845104.316889286</v>
       </c>
       <c r="H562">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>-4873904.316889286</v>
       </c>
       <c r="H563">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>-4848894.061489286</v>
       </c>
       <c r="H564">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>-4847894.061489286</v>
       </c>
       <c r="H565">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>-4873726.751389286</v>
       </c>
       <c r="H566">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>-4873726.751389286</v>
       </c>
       <c r="H567">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>-4873726.751389286</v>
       </c>
       <c r="H568">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>-4873726.751389286</v>
       </c>
       <c r="H569">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>-4873726.751389286</v>
       </c>
       <c r="H570">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>-4873726.751389286</v>
       </c>
       <c r="H571">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>-4873427.887189286</v>
       </c>
       <c r="H572">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>-4867890.282704988</v>
       </c>
       <c r="H573">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>-4867890.282704988</v>
       </c>
       <c r="H574">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>-4867890.282704988</v>
       </c>
       <c r="H575">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>-4912123.135804988</v>
       </c>
       <c r="H576">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>-4862730.213404989</v>
       </c>
       <c r="H577">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>-4862730.213404989</v>
       </c>
       <c r="H578">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>-4862730.213404989</v>
       </c>
       <c r="H579">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>-5027411.218509692</v>
       </c>
       <c r="H580">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>-5040811.218509692</v>
       </c>
       <c r="H581">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>-5015170.954309692</v>
       </c>
       <c r="H582">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>-5140738.686909691</v>
       </c>
       <c r="H583">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>-5718685.462909692</v>
       </c>
       <c r="H588">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>-5716127.534009692</v>
       </c>
       <c r="H589">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>-5737053.738709692</v>
       </c>
       <c r="H590">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>-5731234.344109692</v>
       </c>
       <c r="H591">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>-5683841.736309691</v>
       </c>
       <c r="H592">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>-5680531.299709692</v>
       </c>
       <c r="H593">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>-5680531.299709692</v>
       </c>
       <c r="H594">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>-5680531.299709692</v>
       </c>
       <c r="H596">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>-5655512.299709692</v>
       </c>
       <c r="H597">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>-5668620.287009692</v>
       </c>
       <c r="H598">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>-5673298.151209692</v>
       </c>
       <c r="H601">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>-5644040.661809692</v>
       </c>
       <c r="H605">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>-5652164.264809692</v>
       </c>
       <c r="H606">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>-5648608.898609692</v>
       </c>
       <c r="H607">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-5628658.898609692</v>
       </c>
       <c r="H608">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>-5606512.517509692</v>
       </c>
       <c r="H609">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>-5606512.517509692</v>
       </c>
       <c r="H611">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>-5631560.449709692</v>
       </c>
       <c r="H612">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>-5401828.600688145</v>
       </c>
       <c r="H613">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>-5158994.189388145</v>
       </c>
       <c r="H616">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>-5160510.197088145</v>
       </c>
       <c r="H620">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>-4845718.756688147</v>
       </c>
       <c r="H631">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>-4843306.676088147</v>
       </c>
       <c r="H632">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>-4847184.679688147</v>
       </c>
       <c r="H633">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>-4847184.679688147</v>
       </c>
       <c r="H634">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>-4842240.653988147</v>
       </c>
       <c r="H635">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>-4868308.664188148</v>
       </c>
       <c r="H636">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>-4870565.089388148</v>
       </c>
       <c r="H637">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>-4925720.410088148</v>
       </c>
       <c r="H638">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>-4942189.538988148</v>
       </c>
       <c r="H639">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>-4988195.899188148</v>
       </c>
       <c r="H640">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>-4988185.799188148</v>
       </c>
       <c r="H641">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>-4996447.925388148</v>
       </c>
       <c r="H642">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>-5011273.308732841</v>
       </c>
       <c r="H643">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>-4989691.822743456</v>
       </c>
       <c r="H644">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>-4989691.822743456</v>
       </c>
       <c r="H645">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>-4989691.822743456</v>
       </c>
       <c r="H646">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>-4989691.822743456</v>
       </c>
       <c r="H647">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>-4989681.822743456</v>
       </c>
       <c r="H648">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
